--- a/appium/Results/ExcelSheetsFolder/10062025/ExcelResults.xlsx
+++ b/appium/Results/ExcelSheetsFolder/10062025/ExcelResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="29">
   <si>
     <t>DeviceName</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>PCM</t>
+  </si>
+  <si>
+    <t>sonyliv_3.4.51</t>
+  </si>
+  <si>
+    <t>pani</t>
+  </si>
+  <si>
+    <t>Kankhajura</t>
   </si>
 </sst>
 </file>
@@ -134,7 +143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -808,6 +817,86 @@
         <v>11</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
